--- a/fashion_jewelry.xlsx
+++ b/fashion_jewelry.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="108">
   <si>
     <t>Model</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Overnight</t>
   </si>
   <si>
-    <t xml:space="preserve">14k White/14k Rose </t>
-  </si>
-  <si>
-    <t>18k White/18k Rose</t>
-  </si>
-  <si>
     <t>Diamond Pendant</t>
   </si>
   <si>
@@ -102,12 +96,6 @@
   </si>
   <si>
     <t>0.33 ctw</t>
-  </si>
-  <si>
-    <t>14k White</t>
-  </si>
-  <si>
-    <t>18k White</t>
   </si>
   <si>
     <t>0.20 ctw</t>
@@ -166,9 +154,6 @@
     <t>0.05 ctw</t>
   </si>
   <si>
-    <t>832439-1214WR</t>
-  </si>
-  <si>
     <t>14k White and Rose Gold Cushion Halo Pendant</t>
   </si>
   <si>
@@ -202,27 +187,6 @@
     <t>18k White and Rose Gold Round Halo Pendant</t>
   </si>
   <si>
-    <t>832438-1214WR</t>
-  </si>
-  <si>
-    <t>832437-614W</t>
-  </si>
-  <si>
-    <t>832437-618W</t>
-  </si>
-  <si>
-    <t>832439-1218WR</t>
-  </si>
-  <si>
-    <t>832438-1218WR</t>
-  </si>
-  <si>
-    <t>832432-7514W</t>
-  </si>
-  <si>
-    <t>832432-7518W</t>
-  </si>
-  <si>
     <t>14k White Gold Double Round Halo Pendant</t>
   </si>
   <si>
@@ -232,18 +196,6 @@
     <t xml:space="preserve">Stylish and classic, this double halo pendant features prong set diamonds surrounding the round center stone of your choosing. </t>
   </si>
   <si>
-    <t>832365-3414W</t>
-  </si>
-  <si>
-    <t>832365-3418W</t>
-  </si>
-  <si>
-    <t>832435-7514W</t>
-  </si>
-  <si>
-    <t>832435-7518W</t>
-  </si>
-  <si>
     <t>14k White Gold Halo Style Pendant for Emerald Cut Stone</t>
   </si>
   <si>
@@ -262,12 +214,6 @@
     <t xml:space="preserve">Classically beautiful, this halo diamond pendant will accent the round center stone of your choice perfectly. </t>
   </si>
   <si>
-    <t>831481-614W</t>
-  </si>
-  <si>
-    <t>831481-618W</t>
-  </si>
-  <si>
     <t xml:space="preserve">Classic and elegant, this halo diamond pendant will accent the round center stone of your choice perfectly on an 18 inch cable chain. </t>
   </si>
   <si>
@@ -289,36 +235,12 @@
     <t xml:space="preserve">This beautiful classic pendant features a halo of pave set diamonds surrounding the cushion shape center stone of your choosing on an 18 inch cable chain.  </t>
   </si>
   <si>
-    <t>831371-614W</t>
-  </si>
-  <si>
-    <t>831371-618W</t>
-  </si>
-  <si>
-    <t>832346-114W</t>
-  </si>
-  <si>
-    <t>832346-118W</t>
-  </si>
-  <si>
     <t xml:space="preserve">This beautiful round diamond halo pendant is made to showcase the round center stone of your choice on an 18 inch chain. </t>
   </si>
   <si>
     <t xml:space="preserve">This stylish double round halo pendant will highlight the center stone of your choice beautifully. Pendant comes with an 18 inch cable chain. </t>
   </si>
   <si>
-    <t>832345-114W</t>
-  </si>
-  <si>
-    <t>832345-118W</t>
-  </si>
-  <si>
-    <t>832190-114W</t>
-  </si>
-  <si>
-    <t>832190-118W</t>
-  </si>
-  <si>
     <t>14k White Gold Diamond Halo Pendant</t>
   </si>
   <si>
@@ -337,18 +259,6 @@
     <t xml:space="preserve">This elegant halo style pendant is beautifully made to showcase the round center stone of your choice. Pendant comes with an 18 inch cable chain. </t>
   </si>
   <si>
-    <t>832317-14W</t>
-  </si>
-  <si>
-    <t>832317-18W</t>
-  </si>
-  <si>
-    <t>831563-14W</t>
-  </si>
-  <si>
-    <t>831563-18W</t>
-  </si>
-  <si>
     <t>14k White Gold Vintage Style Halo Pendant</t>
   </si>
   <si>
@@ -367,18 +277,6 @@
     <t xml:space="preserve">This beatiful bezel set square halo pendant features a row of pave set diamond with milgrain edge to highlight the square center stone of your choice. Pendant comes with an 18 inch cable chain. </t>
   </si>
   <si>
-    <t>831893-614W</t>
-  </si>
-  <si>
-    <t>831893-618W</t>
-  </si>
-  <si>
-    <t>832316-14W</t>
-  </si>
-  <si>
-    <t>832316-18W</t>
-  </si>
-  <si>
     <t>14k White Gold Double Halo Diamond Pendant</t>
   </si>
   <si>
@@ -397,15 +295,6 @@
     <t>14k Rose Gold Bezel Set Diamond Fashion Necklace</t>
   </si>
   <si>
-    <t>886525-14W</t>
-  </si>
-  <si>
-    <t>886525-14Y</t>
-  </si>
-  <si>
-    <t>886525-14R</t>
-  </si>
-  <si>
     <t xml:space="preserve">This modern bezel set diamond fashion pendant features nine round diamonds bezel set horizontally across. The Pendant comes with an 18 inch cable chain. </t>
   </si>
   <si>
@@ -421,24 +310,6 @@
     <t xml:space="preserve">This stylish geometric diamond fashion pendant features three hexagons with pave set diamonds. The pendant comes with an 18 inch cable chain. </t>
   </si>
   <si>
-    <t>8652309-14W</t>
-  </si>
-  <si>
-    <t>8652309-14Y</t>
-  </si>
-  <si>
-    <t>8652309-14R</t>
-  </si>
-  <si>
-    <t>8652299-14W</t>
-  </si>
-  <si>
-    <t>8652299-14Y</t>
-  </si>
-  <si>
-    <t>8652299-14R</t>
-  </si>
-  <si>
     <t>14k White Gold Diamond Bar "Y" Shape Necklace</t>
   </si>
   <si>
@@ -463,15 +334,6 @@
     <t xml:space="preserve">This stylish diamond fashion necklace features pave set diamonds on a sideways tear drop. The necklace comes with an 18 inch cable chain. </t>
   </si>
   <si>
-    <t>886500-14W</t>
-  </si>
-  <si>
-    <t>886500-14Y</t>
-  </si>
-  <si>
-    <t>886500-14R</t>
-  </si>
-  <si>
     <t>14k White Gold Double Leaf Diamond Necklace</t>
   </si>
   <si>
@@ -494,6 +356,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fun and stylish, this diamond feather necklace is sure to make a statement. Necklace comes with an 18 inch cable chain. </t>
+  </si>
+  <si>
+    <t>18k White Gold</t>
   </si>
 </sst>
 </file>
@@ -905,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,1938 +1087,1938 @@
       <c r="IV1" s="3"/>
     </row>
     <row r="2" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
+      <c r="A2">
+        <v>832439</v>
+      </c>
+      <c r="B2">
+        <v>832439</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S2" s="5">
         <v>1195</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
+      <c r="A3">
+        <v>832439</v>
+      </c>
+      <c r="B3">
+        <v>832439</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O3">
         <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S3" s="5">
         <v>1395</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
+      <c r="A4">
+        <v>832437</v>
+      </c>
+      <c r="B4">
+        <v>832437</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O4">
         <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S4" s="5">
         <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
+      <c r="A5">
+        <v>832437</v>
+      </c>
+      <c r="B5">
+        <v>832437</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O5">
         <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S5" s="5">
         <v>1095</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
+      <c r="A6">
+        <v>832432</v>
+      </c>
+      <c r="B6">
+        <v>832432</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O6">
         <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S6" s="5">
         <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
+      <c r="A7">
+        <v>832432</v>
+      </c>
+      <c r="B7">
+        <v>832432</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O7">
         <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S7" s="5">
         <v>1095</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
+      <c r="A8">
+        <v>832438</v>
+      </c>
+      <c r="B8">
+        <v>832438</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S8" s="5">
         <v>1195</v>
       </c>
     </row>
     <row r="9" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
+      <c r="A9">
+        <v>832438</v>
+      </c>
+      <c r="B9">
+        <v>832438</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O9">
         <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S9" s="5">
         <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
+      <c r="A10">
+        <v>832365</v>
+      </c>
+      <c r="B10">
+        <v>832365</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O10">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S10" s="5">
         <v>2495</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
+      <c r="A11">
+        <v>832365</v>
+      </c>
+      <c r="B11">
+        <v>832365</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O11">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S11" s="5">
         <v>2750</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
+      <c r="A12">
+        <v>832435</v>
+      </c>
+      <c r="B12">
+        <v>832435</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O12">
         <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S12" s="5">
         <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
+      <c r="A13">
+        <v>832435</v>
+      </c>
+      <c r="B13">
+        <v>832435</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O13">
         <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S13" s="5">
         <v>1050</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>75</v>
+      <c r="A14" s="6">
+        <v>831481</v>
+      </c>
+      <c r="B14" s="6">
+        <v>831481</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O14">
         <v>22</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S14" s="5">
         <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>76</v>
+      <c r="A15" s="6">
+        <v>831481</v>
+      </c>
+      <c r="B15" s="6">
+        <v>831481</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O15">
         <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S15" s="5">
         <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>84</v>
+      <c r="A16" s="6">
+        <v>831371</v>
+      </c>
+      <c r="B16" s="6">
+        <v>831371</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O16">
         <v>16</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S16" s="5">
         <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>85</v>
+      <c r="A17" s="6">
+        <v>831371</v>
+      </c>
+      <c r="B17" s="6">
+        <v>831371</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O17">
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S17" s="5">
         <v>950</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
+      <c r="A18">
+        <v>832346</v>
+      </c>
+      <c r="B18">
+        <v>832346</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O18">
         <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S18" s="5">
         <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
+      <c r="A19">
+        <v>832346</v>
+      </c>
+      <c r="B19">
+        <v>832346</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O19">
         <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S19" s="5">
         <v>1050</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>90</v>
+      <c r="A20" s="6">
+        <v>832345</v>
+      </c>
+      <c r="B20" s="6">
+        <v>832345</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O20">
         <v>45</v>
       </c>
       <c r="P20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S20" s="5">
         <v>1295</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>91</v>
+      <c r="A21" s="6">
+        <v>832345</v>
+      </c>
+      <c r="B21" s="6">
+        <v>832345</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O21">
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S21" s="5">
         <v>1495</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>92</v>
+      <c r="A22" s="6">
+        <v>832190</v>
+      </c>
+      <c r="B22" s="6">
+        <v>832190</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O22">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S22" s="5">
         <v>1095</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>93</v>
+      <c r="A23" s="6">
+        <v>832190</v>
+      </c>
+      <c r="B23" s="6">
+        <v>832190</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O23">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S23" s="5">
         <v>1295</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
+      <c r="A24">
+        <v>832317</v>
+      </c>
+      <c r="B24">
+        <v>832317</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O24">
         <v>21</v>
       </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S24" s="5">
         <v>1695</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
+      <c r="A25">
+        <v>832317</v>
+      </c>
+      <c r="B25">
+        <v>832317</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O25">
         <v>21</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S25" s="5">
         <v>1895</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
+      <c r="A26">
+        <v>831563</v>
+      </c>
+      <c r="B26">
+        <v>831563</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O26">
         <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S26" s="5">
         <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
+      <c r="A27">
+        <v>831563</v>
+      </c>
+      <c r="B27">
+        <v>831563</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O27">
         <v>16</v>
       </c>
       <c r="P27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S27" s="5">
         <v>995</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>110</v>
+      <c r="A28">
+        <v>831893</v>
+      </c>
+      <c r="B28">
+        <v>831893</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O28">
         <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S28" s="5">
         <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" t="s">
-        <v>111</v>
+      <c r="A29">
+        <v>831893</v>
+      </c>
+      <c r="B29">
+        <v>831893</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O29">
         <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S29" s="5">
         <v>1250</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" t="s">
-        <v>112</v>
+      <c r="A30">
+        <v>832316</v>
+      </c>
+      <c r="B30">
+        <v>832316</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O30">
         <v>61</v>
       </c>
       <c r="P30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S30" s="5">
         <v>1495</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>113</v>
+      <c r="A31">
+        <v>832316</v>
+      </c>
+      <c r="B31">
+        <v>832316</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O31">
         <v>61</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S31" s="5">
         <v>1750</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s">
-        <v>120</v>
+      <c r="A32">
+        <v>886525</v>
+      </c>
+      <c r="B32">
+        <v>886525</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="P32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S32" s="5">
         <v>1095</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" t="s">
-        <v>121</v>
+      <c r="A33">
+        <v>886525</v>
+      </c>
+      <c r="B33">
+        <v>886525</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P33" t="s">
-        <v>40</v>
-      </c>
       <c r="Q33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S33" s="5">
         <v>1095</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" t="s">
-        <v>122</v>
+      <c r="A34">
+        <v>886525</v>
+      </c>
+      <c r="B34">
+        <v>886525</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>41</v>
-      </c>
       <c r="R34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S34" s="5">
         <v>1095</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" t="s">
-        <v>128</v>
+      <c r="A35">
+        <v>8652309</v>
+      </c>
+      <c r="B35">
+        <v>8652309</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="P35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S35" s="5">
         <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" t="s">
-        <v>129</v>
+      <c r="A36">
+        <v>8652309</v>
+      </c>
+      <c r="B36">
+        <v>8652309</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S36" s="5">
         <v>895</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" t="s">
-        <v>130</v>
+      <c r="A37">
+        <v>8652309</v>
+      </c>
+      <c r="B37">
+        <v>8652309</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="s">
         <v>37</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>41</v>
-      </c>
       <c r="R37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S37" s="5">
         <v>895</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" t="s">
-        <v>131</v>
+      <c r="A38">
+        <v>8652299</v>
+      </c>
+      <c r="B38">
+        <v>8652299</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="P38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S38" s="5">
         <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" t="s">
-        <v>132</v>
+      <c r="A39">
+        <v>8652299</v>
+      </c>
+      <c r="B39">
+        <v>8652299</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P39" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S39" s="5">
         <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" t="s">
-        <v>133</v>
+      <c r="A40">
+        <v>8652299</v>
+      </c>
+      <c r="B40">
+        <v>8652299</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" t="s">
         <v>37</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>41</v>
-      </c>
       <c r="R40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S40" s="5">
         <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" t="s">
-        <v>142</v>
+      <c r="A41">
+        <v>886500</v>
+      </c>
+      <c r="B41">
+        <v>886500</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="P41" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S41" s="5">
         <v>650</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
+      <c r="A42">
+        <v>886500</v>
+      </c>
+      <c r="B42">
+        <v>886500</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S42" s="5">
         <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" t="s">
-        <v>144</v>
+      <c r="A43">
+        <v>886500</v>
+      </c>
+      <c r="B43">
+        <v>886500</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>41</v>
-      </c>
       <c r="R43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S43" s="5">
         <v>650</v>
@@ -3167,37 +3032,37 @@
         <v>886463</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="P44" t="s">
         <v>38</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P44" t="s">
-        <v>42</v>
-      </c>
       <c r="Q44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S44" s="5">
         <v>395</v>
@@ -3211,37 +3076,37 @@
         <v>886463</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" t="s">
         <v>38</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P45" t="s">
-        <v>42</v>
-      </c>
       <c r="Q45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S45" s="5">
         <v>395</v>
@@ -3255,37 +3120,37 @@
         <v>886463</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q46" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P46" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>41</v>
-      </c>
       <c r="R46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S46" s="5">
         <v>395</v>
@@ -3299,37 +3164,37 @@
         <v>886433</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="P47" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S47" s="5">
         <v>850</v>
@@ -3343,37 +3208,37 @@
         <v>886433</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P48" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S48" s="5">
         <v>850</v>
@@ -3387,37 +3252,37 @@
         <v>886433</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>41</v>
-      </c>
       <c r="R49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S49" s="5">
         <v>850</v>
